--- a/files/Data/excel/Y英雄升级数据.xlsx
+++ b/files/Data/excel/Y英雄升级数据.xlsx
@@ -1,39 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="113" windowWidth="18233" windowHeight="8453"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="LHeroAttributeData" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="I:\L\files\Data\xml\LHeroAttributeData.xml" htmlTables="1" htmlFormat="all"/>
+    <webPr xml="1" sourceData="1" url="C:\work\L\files\Data\xml\LHeroAttributeData.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>id_i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hero_id_i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level_i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,7 +54,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ken_i</t>
+    <t>view_range_i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,66 +82,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大法力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量回复速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力回复速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LHeroAttributeData.xml</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大法力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量回复速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力回复速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视野范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法力攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,14 +214,13 @@
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="id_i" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="hero_id_i" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="level_i" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="hp_i" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="mp_i" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="hp_recovery_i" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="mp_recovery_i" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="atk_range_f" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ken_i" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="view_range_i" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="speed_i" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ad_i" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ap_i" form="unqualified"/>
@@ -250,52 +242,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:Q5" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="C3:Q5"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="C3:P5" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="C3:P5"/>
+  <tableColumns count="14">
     <tableColumn id="1" uniqueName="id_i" name="id_i">
       <xmlColumnPr mapId="1" xpath="/root/data/id_i" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="hero_id_i" name="hero_id_i">
-      <xmlColumnPr mapId="1" xpath="/root/data/hero_id_i" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="level_i" name="level_i">
+    <tableColumn id="2" uniqueName="level_i" name="level_i">
       <xmlColumnPr mapId="1" xpath="/root/data/level_i" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="hp_i" name="hp_i">
+    <tableColumn id="3" uniqueName="hp_i" name="hp_i">
       <xmlColumnPr mapId="1" xpath="/root/data/hp_i" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="mp_i" name="mp_i">
+    <tableColumn id="4" uniqueName="mp_i" name="mp_i">
       <xmlColumnPr mapId="1" xpath="/root/data/mp_i" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="hp_recovery_i" name="hp_recovery_i">
+    <tableColumn id="5" uniqueName="hp_recovery_i" name="hp_recovery_i">
       <xmlColumnPr mapId="1" xpath="/root/data/hp_recovery_i" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="mp_recovery_i" name="mp_recovery_i">
+    <tableColumn id="6" uniqueName="mp_recovery_i" name="mp_recovery_i">
       <xmlColumnPr mapId="1" xpath="/root/data/mp_recovery_i" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="atk_range_f" name="atk_range_f">
+    <tableColumn id="7" uniqueName="atk_range_f" name="atk_range_f">
       <xmlColumnPr mapId="1" xpath="/root/data/atk_range_f" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ken_i" name="ken_i">
-      <xmlColumnPr mapId="1" xpath="/root/data/ken_i" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="10" uniqueName="speed_i" name="speed_i">
+    <tableColumn id="8" uniqueName="view_range_i" name="view_range_i">
+      <xmlColumnPr mapId="1" xpath="/root/data/view_range_i" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="speed_i" name="speed_i">
       <xmlColumnPr mapId="1" xpath="/root/data/speed_i" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="ad_i" name="ad_i">
+    <tableColumn id="10" uniqueName="ad_i" name="ad_i">
       <xmlColumnPr mapId="1" xpath="/root/data/ad_i" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="ap_i" name="ap_i">
+    <tableColumn id="11" uniqueName="ap_i" name="ap_i">
       <xmlColumnPr mapId="1" xpath="/root/data/ap_i" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="def_i" name="def_i">
+    <tableColumn id="12" uniqueName="def_i" name="def_i">
       <xmlColumnPr mapId="1" xpath="/root/data/def_i" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="magic_def_i" name="magic_def_i">
+    <tableColumn id="13" uniqueName="magic_def_i" name="magic_def_i">
       <xmlColumnPr mapId="1" xpath="/root/data/magic_def_i" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="crit_f" name="crit_f">
+    <tableColumn id="14" uniqueName="crit_f" name="crit_f">
       <xmlColumnPr mapId="1" xpath="/root/data/crit_f" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -590,80 +579,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -706,11 +690,8 @@
       <c r="P3" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1</v>
       </c>
@@ -718,98 +699,91 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="F4">
         <v>2000</v>
       </c>
       <c r="G4">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>20</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="J4">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="K4">
         <v>30</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="M4">
         <v>300</v>
       </c>
       <c r="N4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O4">
         <v>200</v>
       </c>
       <c r="P4">
-        <v>200</v>
-      </c>
-      <c r="Q4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F5">
         <v>2000</v>
       </c>
       <c r="G5">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>20</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="J5">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="K5">
         <v>30</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="M5">
         <v>300</v>
       </c>
       <c r="N5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O5">
         <v>200</v>
       </c>
       <c r="P5">
-        <v>200</v>
-      </c>
-      <c r="Q5">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -820,7 +794,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -833,7 +807,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
